--- a/data/statistical/filled_NaN_xlsx/浙江省_NaN_filled_polynomial.xlsx
+++ b/data/statistical/filled_NaN_xlsx/浙江省_NaN_filled_polynomial.xlsx
@@ -600,7 +600,7 @@
         <v>40.3</v>
       </c>
       <c r="E2">
-        <v>3211.828572571278</v>
+        <v>3211.828572288156</v>
       </c>
       <c r="F2">
         <v>8713.08</v>
@@ -609,85 +609,85 @@
         <v>3.79</v>
       </c>
       <c r="H2">
-        <v>52.25837203296396</v>
+        <v>52.25837203291121</v>
       </c>
       <c r="I2">
-        <v>4.254726522274723</v>
+        <v>4.254726522191049</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>-116.8170037884265</v>
       </c>
       <c r="K2">
-        <v>28.38130574661773</v>
+        <v>28.38130574772367</v>
       </c>
       <c r="L2">
-        <v>0.9385961749555918</v>
+        <v>0.9385961749534317</v>
       </c>
       <c r="M2">
-        <v>86.30035470519215</v>
+        <v>86.30035470589064</v>
       </c>
       <c r="N2">
-        <v>244.9049019496888</v>
+        <v>244.9049019501545</v>
       </c>
       <c r="O2">
-        <v>21.40058822929859</v>
+        <v>21.40058823721483</v>
       </c>
       <c r="P2">
-        <v>149.7684658306673</v>
+        <v>176.8706057851945</v>
       </c>
       <c r="Q2">
-        <v>61.70865196059458</v>
+        <v>61.7086519591976</v>
       </c>
       <c r="R2">
-        <v>22.87659699842334</v>
+        <v>22.87659699923825</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>-152827.4047255516</v>
       </c>
       <c r="T2">
         <v>0</v>
       </c>
       <c r="U2">
-        <v>1.421009480272756</v>
+        <v>0.8345305427007982</v>
       </c>
       <c r="V2">
-        <v>41.01460268604569</v>
+        <v>41.01460268592928</v>
       </c>
       <c r="W2">
-        <v>78.97446153871715</v>
+        <v>78.9744615383679</v>
       </c>
       <c r="X2">
-        <v>44861.53878580274</v>
+        <v>54694.10272460066</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>-26.70786813215818</v>
       </c>
       <c r="Z2">
-        <v>1096.531473815441</v>
+        <v>1096.531475901604</v>
       </c>
       <c r="AA2">
-        <v>3612.466783955693</v>
+        <v>-49.07342657935806</v>
       </c>
       <c r="AB2">
-        <v>2040444.112579346</v>
+        <v>64425.0022892952</v>
       </c>
       <c r="AC2">
-        <v>7275585.738952637</v>
+        <v>41671.22135043144</v>
       </c>
       <c r="AD2">
-        <v>56670.2010512352</v>
+        <v>207.1696970853955</v>
       </c>
       <c r="AE2">
-        <v>246821.2042226791</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>26666.16801050305</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>79988.31591963768</v>
+        <v>-25152.62953138351</v>
       </c>
       <c r="AH2">
-        <v>1336755.793117523</v>
+        <v>72137.78210949898</v>
       </c>
     </row>
     <row r="3" spans="1:34">
@@ -713,13 +713,13 @@
         <v>3.28</v>
       </c>
       <c r="H3">
-        <v>53.28121130027284</v>
+        <v>53.28121130021646</v>
       </c>
       <c r="I3">
         <v>4.2</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>-87.83606604300439</v>
       </c>
       <c r="K3">
         <v>26.6872196038751</v>
@@ -764,34 +764,34 @@
         <v>23910</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>-20.24238461535424</v>
       </c>
       <c r="Z3">
-        <v>4768.941174954176</v>
+        <v>4768.941176608205</v>
       </c>
       <c r="AA3">
-        <v>3158.099650979042</v>
+        <v>-41.98251748690382</v>
       </c>
       <c r="AB3">
-        <v>1741119.993911743</v>
+        <v>53429.59843969345</v>
       </c>
       <c r="AC3">
-        <v>6144375.007263184</v>
+        <v>33682.80945944786</v>
       </c>
       <c r="AD3">
-        <v>47346.50524544716</v>
+        <v>158.4181819204241</v>
       </c>
       <c r="AE3">
-        <v>212896.6447763443</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>25704.42640163004</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>71162.74843478203</v>
+        <v>-22193.79258877039</v>
       </c>
       <c r="AH3">
-        <v>1174468.78156662</v>
+        <v>62778.08925557137</v>
       </c>
     </row>
     <row r="4" spans="1:34">
@@ -817,13 +817,13 @@
         <v>4.95</v>
       </c>
       <c r="H4">
-        <v>54.3090931372335</v>
+        <v>54.30909313718439</v>
       </c>
       <c r="I4">
         <v>4.1</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>-51.21233999170363</v>
       </c>
       <c r="K4">
         <v>23.1785521131113</v>
@@ -847,7 +847,7 @@
         <v>62.89</v>
       </c>
       <c r="R4">
-        <v>16.72764705331065</v>
+        <v>16.72764705284499</v>
       </c>
       <c r="S4">
         <v>87243.10000000001</v>
@@ -868,34 +868,34 @@
         <v>21139</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>-14.10552747198381</v>
       </c>
       <c r="Z4">
         <v>20948</v>
       </c>
       <c r="AA4">
-        <v>2748.274476021528</v>
+        <v>-35.33216783532407</v>
       </c>
       <c r="AB4">
-        <v>1487729.123580933</v>
+        <v>43497.92231321335</v>
       </c>
       <c r="AC4">
-        <v>5130286.334899902</v>
+        <v>26625.49517059326</v>
       </c>
       <c r="AD4">
-        <v>38963.85089850426</v>
+        <v>115.5454546343535</v>
       </c>
       <c r="AE4">
-        <v>181548.339176178</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>24699.76835919917</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>63198.21646428108</v>
+        <v>-19413.9965326786</v>
       </c>
       <c r="AH4">
-        <v>1025561.564865112</v>
+        <v>54067.52973484993</v>
       </c>
     </row>
     <row r="5" spans="1:34">
@@ -927,7 +927,7 @@
         <v>3.7</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>-6.945825634524226</v>
       </c>
       <c r="K5">
         <v>20.9668139350469</v>
@@ -972,34 +972,34 @@
         <v>14064</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>-8.29729670251254</v>
       </c>
       <c r="Z5">
         <v>20341</v>
       </c>
       <c r="AA5">
-        <v>2382.991259157658</v>
+        <v>-29.12237762438599</v>
       </c>
       <c r="AB5">
-        <v>1280271.501525879</v>
+        <v>34629.97390890121</v>
       </c>
       <c r="AC5">
-        <v>4233319.72177124</v>
+        <v>20499.27848482132</v>
       </c>
       <c r="AD5">
-        <v>31522.23801064491</v>
+        <v>78.55151522904634</v>
       </c>
       <c r="AE5">
-        <v>152776.2874231339</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>23652.19388324022</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>56094.7200088501</v>
+        <v>-16813.24136298895</v>
       </c>
       <c r="AH5">
-        <v>890034.1430244446</v>
+        <v>46006.10354733467</v>
       </c>
     </row>
     <row r="6" spans="1:34">
@@ -1076,34 +1076,34 @@
         <v>82315</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>-2.817692306591198</v>
       </c>
       <c r="Z6">
         <v>11368</v>
       </c>
       <c r="AA6">
-        <v>2062.250000327826</v>
+        <v>-23.35314685420599</v>
       </c>
       <c r="AB6">
-        <v>1118747.127822876</v>
+        <v>26825.75322771072</v>
       </c>
       <c r="AC6">
-        <v>3453475.167877197</v>
+        <v>15304.15940141678</v>
       </c>
       <c r="AD6">
-        <v>25021.66658091545</v>
+        <v>47.43636370263994</v>
       </c>
       <c r="AE6">
-        <v>126580.4895172119</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>22561.70297378302</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>49852.25906825066</v>
+        <v>-14391.52707988024</v>
       </c>
       <c r="AH6">
-        <v>767886.516040802</v>
+        <v>38593.81069302559</v>
       </c>
     </row>
     <row r="7" spans="1:34">
@@ -1186,28 +1186,28 @@
         <v>11584</v>
       </c>
       <c r="AA7">
-        <v>1786.050699532032</v>
+        <v>-18.02447552478407</v>
       </c>
       <c r="AB7">
-        <v>1003156.00239563</v>
+        <v>20085.2602686882</v>
       </c>
       <c r="AC7">
-        <v>2790752.673248291</v>
+        <v>11040.13792085648</v>
       </c>
       <c r="AD7">
-        <v>19462.13661003113</v>
+        <v>22.20000005699694</v>
       </c>
       <c r="AE7">
-        <v>102960.9454574585</v>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <v>21428.29563075304</v>
+        <v>0</v>
       </c>
       <c r="AG7">
-        <v>44470.83364224434</v>
+        <v>-12148.85368323326</v>
       </c>
       <c r="AH7">
-        <v>659118.683921814</v>
+        <v>31830.65117192268</v>
       </c>
     </row>
     <row r="8" spans="1:34">
@@ -1290,28 +1290,28 @@
         <v>8524</v>
       </c>
       <c r="AA8">
-        <v>1554.393356814981</v>
+        <v>-13.13636363600381</v>
       </c>
       <c r="AB8">
-        <v>933498.1253051758</v>
+        <v>14408.49503183365</v>
       </c>
       <c r="AC8">
-        <v>2245152.237884521</v>
+        <v>7707.214042425156</v>
       </c>
       <c r="AD8">
-        <v>14843.64809846878</v>
+        <v>2.842424290254712</v>
       </c>
       <c r="AE8">
-        <v>81917.6552438736</v>
+        <v>0</v>
       </c>
       <c r="AF8">
-        <v>20251.9718542099</v>
+        <v>0</v>
       </c>
       <c r="AG8">
-        <v>39950.44373059273</v>
+        <v>-10085.22117316723</v>
       </c>
       <c r="AH8">
-        <v>563730.6466522217</v>
+        <v>25716.62498402596</v>
       </c>
     </row>
     <row r="9" spans="1:34">
@@ -1394,28 +1394,28 @@
         <v>27422</v>
       </c>
       <c r="AA9">
-        <v>1367.277972117066</v>
+        <v>-8.688811187865213</v>
       </c>
       <c r="AB9">
-        <v>909773.4965057373</v>
+        <v>9795.457518100739</v>
       </c>
       <c r="AC9">
-        <v>1816673.861846924</v>
+        <v>5305.387766838074</v>
       </c>
       <c r="AD9">
-        <v>11166.2010447979</v>
+        <v>-10.63636359758675</v>
       </c>
       <c r="AE9">
-        <v>63450.61887836456</v>
+        <v>0</v>
       </c>
       <c r="AF9">
-        <v>19032.73164415359</v>
+        <v>0</v>
       </c>
       <c r="AG9">
-        <v>36291.0893342495</v>
+        <v>-8200.629549443722</v>
       </c>
       <c r="AH9">
-        <v>481722.4042434692</v>
+        <v>20251.73212909698</v>
       </c>
     </row>
     <row r="10" spans="1:34">
@@ -1498,28 +1498,28 @@
         <v>15214</v>
       </c>
       <c r="AA10">
-        <v>1224.704545497894</v>
+        <v>-4.681818180484697</v>
       </c>
       <c r="AB10">
-        <v>931982.1160430908</v>
+        <v>6246.147726535797</v>
       </c>
       <c r="AC10">
-        <v>1505317.545013428</v>
+        <v>3834.65909409523</v>
       </c>
       <c r="AD10">
-        <v>8429.795450210571</v>
+        <v>-18.2363636046648</v>
       </c>
       <c r="AE10">
-        <v>47559.83635902405</v>
+        <v>0</v>
       </c>
       <c r="AF10">
-        <v>17770.57500053942</v>
+        <v>0</v>
       </c>
       <c r="AG10">
-        <v>33492.77045249939</v>
+        <v>-6495.078812241554</v>
       </c>
       <c r="AH10">
-        <v>413093.956703186</v>
+        <v>15435.97260761261</v>
       </c>
     </row>
     <row r="11" spans="1:34">
@@ -1602,28 +1602,28 @@
         <v>40473</v>
       </c>
       <c r="AA11">
-        <v>935</v>
+        <v>1</v>
       </c>
       <c r="AB11">
-        <v>869939</v>
+        <v>361</v>
       </c>
       <c r="AC11">
-        <v>975403</v>
+        <v>1299</v>
       </c>
       <c r="AD11">
-        <v>4672</v>
+        <v>-19.95757573284209</v>
       </c>
       <c r="AE11">
-        <v>22462</v>
+        <v>0</v>
       </c>
       <c r="AF11">
-        <v>13871</v>
+        <v>0</v>
       </c>
       <c r="AG11">
-        <v>24683</v>
+        <v>-4968.568961560726</v>
       </c>
       <c r="AH11">
-        <v>284663</v>
+        <v>11269.3464202881</v>
       </c>
     </row>
     <row r="12" spans="1:34">
@@ -1706,28 +1706,28 @@
         <v>43923</v>
       </c>
       <c r="AA12">
-        <v>1147</v>
+        <v>3</v>
       </c>
       <c r="AB12">
-        <v>1155257</v>
+        <v>1486</v>
       </c>
       <c r="AC12">
-        <v>1202898</v>
+        <v>1374</v>
       </c>
       <c r="AD12">
-        <v>5929</v>
+        <v>-15.79999998211861</v>
       </c>
       <c r="AE12">
-        <v>26715</v>
+        <v>0</v>
       </c>
       <c r="AF12">
-        <v>15690</v>
+        <v>0</v>
       </c>
       <c r="AG12">
-        <v>29407</v>
+        <v>-3621.099997341633</v>
       </c>
       <c r="AH12">
-        <v>311325</v>
+        <v>7751.8535656929</v>
       </c>
     </row>
     <row r="13" spans="1:34">
@@ -1810,28 +1810,28 @@
         <v>42362</v>
       </c>
       <c r="AA13">
-        <v>1136</v>
+        <v>3</v>
       </c>
       <c r="AB13">
-        <v>1304677</v>
+        <v>6093</v>
       </c>
       <c r="AC13">
-        <v>1475047</v>
+        <v>1009</v>
       </c>
       <c r="AD13">
-        <v>6672</v>
+        <v>1</v>
       </c>
       <c r="AE13">
-        <v>22223</v>
+        <v>0</v>
       </c>
       <c r="AF13">
-        <v>15645</v>
+        <v>0</v>
       </c>
       <c r="AG13">
-        <v>38852</v>
+        <v>-2452.671919584274</v>
       </c>
       <c r="AH13">
-        <v>314396</v>
+        <v>4883.49404382706</v>
       </c>
     </row>
     <row r="14" spans="1:34">
@@ -1914,28 +1914,28 @@
         <v>39396</v>
       </c>
       <c r="AA14">
-        <v>1197</v>
+        <v>2</v>
       </c>
       <c r="AB14">
-        <v>1537770</v>
+        <v>1666</v>
       </c>
       <c r="AC14">
-        <v>1697889</v>
+        <v>11341</v>
       </c>
       <c r="AD14">
-        <v>8439</v>
+        <v>6</v>
       </c>
       <c r="AE14">
-        <v>16409</v>
+        <v>0</v>
       </c>
       <c r="AF14">
-        <v>17146</v>
+        <v>0</v>
       </c>
       <c r="AG14">
-        <v>37150</v>
+        <v>-1463.284728348255</v>
       </c>
       <c r="AH14">
-        <v>371310</v>
+        <v>2664.26785492897</v>
       </c>
     </row>
     <row r="15" spans="1:34">
@@ -2018,28 +2018,28 @@
         <v>71595</v>
       </c>
       <c r="AA15">
-        <v>1308</v>
+        <v>7</v>
       </c>
       <c r="AB15">
-        <v>1853268</v>
+        <v>4143</v>
       </c>
       <c r="AC15">
-        <v>1939232</v>
+        <v>19946</v>
       </c>
       <c r="AD15">
-        <v>10383</v>
+        <v>13</v>
       </c>
       <c r="AE15">
-        <v>12638</v>
+        <v>0</v>
       </c>
       <c r="AF15">
-        <v>8297</v>
+        <v>0</v>
       </c>
       <c r="AG15">
-        <v>41046</v>
+        <v>-652.9384235739708</v>
       </c>
       <c r="AH15">
-        <v>344566</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:34">
@@ -2122,28 +2122,28 @@
         <v>55648</v>
       </c>
       <c r="AA16">
-        <v>1393</v>
+        <v>16</v>
       </c>
       <c r="AB16">
-        <v>2132658</v>
+        <v>9619</v>
       </c>
       <c r="AC16">
-        <v>2353460</v>
+        <v>15837</v>
       </c>
       <c r="AD16">
-        <v>12900</v>
+        <v>94</v>
       </c>
       <c r="AE16">
-        <v>9306</v>
+        <v>0</v>
       </c>
       <c r="AF16">
-        <v>8105</v>
+        <v>0</v>
       </c>
       <c r="AG16">
-        <v>25916</v>
+        <v>160</v>
       </c>
       <c r="AH16">
-        <v>298952</v>
+        <v>828</v>
       </c>
     </row>
     <row r="17" spans="1:34">
@@ -2178,10 +2178,10 @@
         <v>1157.8374</v>
       </c>
       <c r="K17">
-        <v>9.771256844920572</v>
+        <v>9.771256843989249</v>
       </c>
       <c r="L17">
-        <v>0.5531946430581911</v>
+        <v>0.5531946430617154</v>
       </c>
       <c r="M17">
         <v>2.15975966741011</v>
@@ -2226,28 +2226,28 @@
         <v>44054</v>
       </c>
       <c r="AA17">
-        <v>1422</v>
+        <v>9</v>
       </c>
       <c r="AB17">
-        <v>2329266.2</v>
+        <v>17780.3</v>
       </c>
       <c r="AC17">
-        <v>2547259.4</v>
+        <v>19060.6</v>
       </c>
       <c r="AD17">
-        <v>15374</v>
+        <v>54</v>
       </c>
       <c r="AE17">
-        <v>6273</v>
+        <v>0</v>
       </c>
       <c r="AF17">
-        <v>4199</v>
+        <v>0</v>
       </c>
       <c r="AG17">
-        <v>24931</v>
+        <v>124</v>
       </c>
       <c r="AH17">
-        <v>207508</v>
+        <v>475</v>
       </c>
     </row>
     <row r="18" spans="1:34">
@@ -2282,10 +2282,10 @@
         <v>1370.5</v>
       </c>
       <c r="K18">
-        <v>9.990964170836378</v>
+        <v>9.99096416978864</v>
       </c>
       <c r="L18">
-        <v>0.5311641050873277</v>
+        <v>0.5311641050915341</v>
       </c>
       <c r="M18">
         <v>1.5471958987244</v>
@@ -2312,13 +2312,13 @@
         <v>0</v>
       </c>
       <c r="U18">
-        <v>1.321598284077841</v>
+        <v>1.352289321461096</v>
       </c>
       <c r="V18">
         <v>95.8</v>
       </c>
       <c r="W18">
-        <v>100.8618901089649</v>
+        <v>100.8618901084992</v>
       </c>
       <c r="X18">
         <v>36748</v>
@@ -2330,28 +2330,28 @@
         <v>63643</v>
       </c>
       <c r="AA18">
-        <v>1495</v>
+        <v>13</v>
       </c>
       <c r="AB18">
-        <v>2701824.1</v>
+        <v>24669.9</v>
       </c>
       <c r="AC18">
-        <v>2984434.7</v>
+        <v>37646.3</v>
       </c>
       <c r="AD18">
-        <v>19003</v>
+        <v>163</v>
       </c>
       <c r="AE18">
-        <v>5507.6</v>
+        <v>0</v>
       </c>
       <c r="AF18">
-        <v>9488.5</v>
+        <v>0</v>
       </c>
       <c r="AG18">
-        <v>44026.2</v>
+        <v>703.8551721572881</v>
       </c>
       <c r="AH18">
-        <v>335842</v>
+        <v>1872.3</v>
       </c>
     </row>
     <row r="19" spans="1:34">
@@ -2368,7 +2368,7 @@
         <v>54.6</v>
       </c>
       <c r="E19">
-        <v>34832.52857175469</v>
+        <v>34832.52857235074</v>
       </c>
       <c r="F19">
         <v>37507.855</v>
@@ -2386,10 +2386,10 @@
         <v>1343</v>
       </c>
       <c r="K19">
-        <v>10.39321865333477</v>
+        <v>10.39321865228703</v>
       </c>
       <c r="L19">
-        <v>0.5095914293025317</v>
+        <v>0.5095914293075339</v>
       </c>
       <c r="M19">
         <v>1.24808064698756</v>
@@ -2416,13 +2416,13 @@
         <v>0</v>
       </c>
       <c r="U19">
-        <v>1.132956545508242</v>
+        <v>1.495463278960358</v>
       </c>
       <c r="V19">
         <v>97</v>
       </c>
       <c r="W19">
-        <v>100.7901703285752</v>
+        <v>100.7901703280513</v>
       </c>
       <c r="X19">
         <v>39065</v>
@@ -2434,28 +2434,28 @@
         <v>75527</v>
       </c>
       <c r="AA19">
-        <v>1817</v>
+        <v>10</v>
       </c>
       <c r="AB19">
-        <v>2972973</v>
+        <v>14146.5</v>
       </c>
       <c r="AC19">
-        <v>3591510.3</v>
+        <v>26213.2</v>
       </c>
       <c r="AD19">
-        <v>23874</v>
+        <v>155</v>
       </c>
       <c r="AE19">
-        <v>5184.7</v>
+        <v>0</v>
       </c>
       <c r="AF19">
-        <v>4413.6</v>
+        <v>0</v>
       </c>
       <c r="AG19">
-        <v>55206.8</v>
+        <v>798.037930488586</v>
       </c>
       <c r="AH19">
-        <v>325244.6</v>
+        <v>1086.1</v>
       </c>
     </row>
     <row r="20" spans="1:34">
@@ -2472,7 +2472,7 @@
         <v>55.9</v>
       </c>
       <c r="E20">
-        <v>36499.00042070448</v>
+        <v>36499.00042141229</v>
       </c>
       <c r="F20">
         <v>36196.9354</v>
@@ -2490,10 +2490,10 @@
         <v>1632.4755</v>
       </c>
       <c r="K20">
-        <v>10.97802029247396</v>
+        <v>10.9780202912516</v>
       </c>
       <c r="L20">
-        <v>0.488476615704144</v>
+        <v>0.488476615709601</v>
       </c>
       <c r="M20">
         <v>0.796677590107554</v>
@@ -2520,13 +2520,13 @@
         <v>0</v>
       </c>
       <c r="U20">
-        <v>1.117429079435935</v>
+        <v>0.8620157942694753</v>
       </c>
       <c r="V20">
         <v>97.7</v>
       </c>
       <c r="W20">
-        <v>100.5490759522072</v>
+        <v>100.5490759513923</v>
       </c>
       <c r="X20">
         <v>40037</v>
@@ -2538,28 +2538,28 @@
         <v>119926</v>
       </c>
       <c r="AA20">
-        <v>2212</v>
+        <v>14</v>
       </c>
       <c r="AB20">
-        <v>3683426</v>
+        <v>13708</v>
       </c>
       <c r="AC20">
-        <v>4428792</v>
+        <v>17420</v>
       </c>
       <c r="AD20">
-        <v>30818</v>
+        <v>262</v>
       </c>
       <c r="AE20">
-        <v>45532</v>
+        <v>0</v>
       </c>
       <c r="AF20">
-        <v>929</v>
+        <v>0</v>
       </c>
       <c r="AG20">
-        <v>41859</v>
+        <v>1055</v>
       </c>
       <c r="AH20">
-        <v>430622</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="21" spans="1:34">
@@ -2576,7 +2576,7 @@
         <v>54.9</v>
       </c>
       <c r="E21">
-        <v>38143.9645666033</v>
+        <v>38143.96456741542</v>
       </c>
       <c r="F21">
         <v>42193.5</v>
@@ -2594,25 +2594,25 @@
         <v>1664.5574</v>
       </c>
       <c r="K21">
-        <v>11.74536908825394</v>
+        <v>11.74536908679875</v>
       </c>
       <c r="L21">
-        <v>0.4678196642917101</v>
+        <v>0.4678196642979628</v>
       </c>
       <c r="M21">
         <v>0.589329435694574</v>
       </c>
       <c r="N21">
-        <v>232.6617647111416</v>
+        <v>232.661764707882</v>
       </c>
       <c r="O21">
-        <v>102.9009803906083</v>
+        <v>102.9009803812951</v>
       </c>
       <c r="P21">
         <v>128.6</v>
       </c>
       <c r="Q21">
-        <v>91.78433823608793</v>
+        <v>91.78433823795058</v>
       </c>
       <c r="R21">
         <v>42.2</v>
@@ -2624,46 +2624,46 @@
         <v>0</v>
       </c>
       <c r="U21">
-        <v>1.388020721290409</v>
+        <v>1.447429976150545</v>
       </c>
       <c r="V21">
         <v>97.90000000000001</v>
       </c>
       <c r="W21">
-        <v>100.1386069798027</v>
+        <v>100.1386069788132</v>
       </c>
       <c r="X21">
-        <v>43790.82769347796</v>
+        <v>57519.29060844603</v>
       </c>
       <c r="Y21">
-        <v>39.94120879156981</v>
+        <v>39.94120878726244</v>
       </c>
       <c r="Z21">
         <v>23975</v>
       </c>
       <c r="AA21">
-        <v>2607</v>
+        <v>12</v>
       </c>
       <c r="AB21">
-        <v>4167292</v>
+        <v>30787</v>
       </c>
       <c r="AC21">
-        <v>5923750</v>
+        <v>42638</v>
       </c>
       <c r="AD21">
-        <v>41274</v>
+        <v>262</v>
       </c>
       <c r="AE21">
-        <v>23189</v>
+        <v>0</v>
       </c>
       <c r="AF21">
-        <v>711</v>
+        <v>0</v>
       </c>
       <c r="AG21">
-        <v>66733</v>
+        <v>209</v>
       </c>
       <c r="AH21">
-        <v>561493</v>
+        <v>4155</v>
       </c>
     </row>
     <row r="22" spans="1:34">
@@ -2680,7 +2680,7 @@
         <v>54.3</v>
       </c>
       <c r="E22">
-        <v>39767.42100945115</v>
+        <v>39767.42101038992</v>
       </c>
       <c r="F22">
         <v>44511.2113</v>
@@ -2692,34 +2692,34 @@
         <v>73.38</v>
       </c>
       <c r="I22">
-        <v>2.654375644877291</v>
+        <v>2.654375644960965</v>
       </c>
       <c r="J22">
-        <v>1914.931529309601</v>
+        <v>1914.931529249996</v>
       </c>
       <c r="K22">
-        <v>12.6952650405583</v>
+        <v>12.6952650390449</v>
       </c>
       <c r="L22">
-        <v>0.4476205750655708</v>
+        <v>0.4476205750723921</v>
       </c>
       <c r="M22">
-        <v>2.288860638393089</v>
+        <v>2.28886063885875</v>
       </c>
       <c r="N22">
-        <v>242.6401960831136</v>
+        <v>242.6401960798539</v>
       </c>
       <c r="O22">
-        <v>118.5342311635613</v>
+        <v>118.5342311523855</v>
       </c>
       <c r="P22">
-        <v>173.0091116365076</v>
+        <v>169.3860787658507</v>
       </c>
       <c r="Q22">
-        <v>88.74826754478272</v>
+        <v>88.7482675468782</v>
       </c>
       <c r="R22">
-        <v>47.68632352643181</v>
+        <v>47.68632353271823</v>
       </c>
       <c r="S22">
         <v>1302617</v>
@@ -2728,46 +2728,46 @@
         <v>0</v>
       </c>
       <c r="U22">
-        <v>1.018126503923139</v>
+        <v>1.35505882967561</v>
       </c>
       <c r="V22">
-        <v>95.39284829725511</v>
+        <v>95.39284829655662</v>
       </c>
       <c r="W22">
-        <v>99.55876341141993</v>
+        <v>99.55876341013936</v>
       </c>
       <c r="X22">
-        <v>12058.88579580466</v>
+        <v>42047.66032871279</v>
       </c>
       <c r="Y22">
-        <v>40.16279120917898</v>
+        <v>40.16279120382387</v>
       </c>
       <c r="Z22">
-        <v>78228.05882272124</v>
+        <v>78228.05882341415</v>
       </c>
       <c r="AA22">
-        <v>3120</v>
+        <v>6</v>
       </c>
       <c r="AB22">
-        <v>4927409.8</v>
+        <v>60844.8</v>
       </c>
       <c r="AC22">
-        <v>7290772</v>
+        <v>76434.5</v>
       </c>
       <c r="AD22">
-        <v>50919</v>
+        <v>354</v>
       </c>
       <c r="AE22">
-        <v>73554.10000000001</v>
+        <v>0</v>
       </c>
       <c r="AF22">
-        <v>682</v>
+        <v>0</v>
       </c>
       <c r="AG22">
-        <v>67251.3</v>
+        <v>29.8</v>
       </c>
       <c r="AH22">
-        <v>688432.3</v>
+        <v>9825.6</v>
       </c>
     </row>
     <row r="23" spans="1:34">
@@ -2784,94 +2784,94 @@
         <v>56.1</v>
       </c>
       <c r="E23">
-        <v>41369.36974924803</v>
+        <v>41369.36975031346</v>
       </c>
       <c r="F23">
-        <v>46716.40801489353</v>
+        <v>46716.40801373124</v>
       </c>
       <c r="G23">
         <v>-0.86</v>
       </c>
       <c r="H23">
-        <v>74.79693627439156</v>
+        <v>74.79693627445886</v>
       </c>
       <c r="I23">
-        <v>2.664776057656127</v>
+        <v>2.664776057750714</v>
       </c>
       <c r="J23">
-        <v>2096.768233183771</v>
+        <v>2096.768233112991</v>
       </c>
       <c r="K23">
-        <v>13.82770814944524</v>
+        <v>13.82770814781543</v>
       </c>
       <c r="L23">
-        <v>0.4278793480252716</v>
+        <v>0.4278793480327749</v>
       </c>
       <c r="M23">
-        <v>3.695102023892105</v>
+        <v>3.695102024357766</v>
       </c>
       <c r="N23">
-        <v>253.6809081574902</v>
+        <v>253.6809081542306</v>
       </c>
       <c r="O23">
-        <v>135.3018575818278</v>
+        <v>135.3018575692549</v>
       </c>
       <c r="P23">
-        <v>146.2063885669705</v>
+        <v>190.0638570992715</v>
       </c>
       <c r="Q23">
-        <v>85.25029669876676</v>
+        <v>85.25029670097865</v>
       </c>
       <c r="R23">
-        <v>53.96093136852141</v>
+        <v>53.960931375972</v>
       </c>
       <c r="S23">
-        <v>1587952.396310806</v>
+        <v>1587952.39633131</v>
       </c>
       <c r="T23">
         <v>0</v>
       </c>
       <c r="U23">
-        <v>0.9338669894875047</v>
+        <v>0.7346513924565848</v>
       </c>
       <c r="V23">
-        <v>94.11482559377328</v>
+        <v>94.11482559307478</v>
       </c>
       <c r="W23">
-        <v>98.80954524705885</v>
+        <v>98.80954524554545</v>
       </c>
       <c r="X23">
-        <v>33112.43249431798</v>
+        <v>18856.91411914854</v>
       </c>
       <c r="Y23">
-        <v>40.05574725277256</v>
+        <v>40.0557472469518</v>
       </c>
       <c r="Z23">
-        <v>82288.18782135844</v>
+        <v>82288.18782237917</v>
       </c>
       <c r="AA23">
-        <v>3424.568182051182</v>
+        <v>7.318181812879629</v>
       </c>
       <c r="AB23">
-        <v>5400619.766036987</v>
+        <v>56904.34319162369</v>
       </c>
       <c r="AC23">
-        <v>8115792.819335938</v>
+        <v>69445.06818580627</v>
       </c>
       <c r="AD23">
-        <v>58491.29546332359</v>
+        <v>417.9333333354443</v>
       </c>
       <c r="AE23">
-        <v>75418.76365947723</v>
+        <v>0</v>
       </c>
       <c r="AF23">
         <v>0</v>
       </c>
       <c r="AG23">
-        <v>75468.85682821274</v>
+        <v>-615.6398992538452</v>
       </c>
       <c r="AH23">
-        <v>738485.4706764221</v>
+        <v>11902.23214650154</v>
       </c>
     </row>
   </sheetData>
